--- a/python/two/night Error t1=6 t2=3 δ=0.9.xlsx
+++ b/python/two/night Error t1=6 t2=3 δ=0.9.xlsx
@@ -470,16 +470,16 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>6.04</v>
       </c>
       <c r="D2" t="n">
-        <v>4.62e-05</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>5.95</v>
+        <v>6.08</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.906</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="3">
@@ -492,16 +492,16 @@
         <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>4.42</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>47.2</v>
+        <v>-66.59999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>5.54</v>
+        <v>5.94</v>
       </c>
       <c r="F3" t="n">
-        <v>84.7</v>
+        <v>98.09999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -514,16 +514,16 @@
         <v>0.0001</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001</v>
+        <v>0.000101</v>
       </c>
       <c r="D4" t="n">
-        <v>9.95e-06</v>
+        <v>0.988</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0001</v>
+        <v>0.000101</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0402</v>
+        <v>0.667</v>
       </c>
     </row>
     <row r="5">
@@ -536,16 +536,16 @@
         <v>0.9</v>
       </c>
       <c r="C5" t="n">
-        <v>0.876</v>
+        <v>0.703</v>
       </c>
       <c r="D5" t="n">
-        <v>-2.64</v>
+        <v>-21.9</v>
       </c>
       <c r="E5" t="n">
-        <v>0.995</v>
+        <v>0.0391</v>
       </c>
       <c r="F5" t="n">
-        <v>10.5</v>
+        <v>-95.7</v>
       </c>
     </row>
     <row r="6">
@@ -561,13 +561,13 @@
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.11e-14</v>
+        <v>-1.53e-05</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.00115</v>
+        <v>-1.11e-14</v>
       </c>
     </row>
     <row r="7">
@@ -580,7 +580,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>6.44e-07</v>
+        <v>127000</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -588,7 +588,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>171000</v>
+        <v>111000</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>3.3e-09</v>
+        <v>651</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>876</v>
+        <v>571</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
